--- a/Impedance_Potential_Board/Impedance_Potential_PnP.xlsx
+++ b/Impedance_Potential_Board/Impedance_Potential_PnP.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -112,9 +112,6 @@
     <t xml:space="preserve">C23</t>
   </si>
   <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
@@ -148,7 +145,10 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue LED</t>
+    <t xml:space="preserve"> RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LED-0603</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">R23</t>
   </si>
   <si>
-    <t xml:space="preserve">R3</t>
+    <t xml:space="preserve">200k</t>
   </si>
   <si>
     <t xml:space="preserve">R4</t>
@@ -296,11 +296,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -324,12 +325,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -387,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,11 +396,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -425,18 +416,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57:G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.3"/>
   </cols>
   <sheetData>
@@ -459,7 +450,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -479,10 +470,10 @@
       <c r="E2" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -491,10 +482,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>42.95</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>28.35</v>
+        <v>28.05</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -502,10 +493,10 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -525,10 +516,10 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -548,10 +539,10 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -571,10 +562,10 @@
       <c r="E6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -594,10 +585,10 @@
       <c r="E7" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -617,10 +608,10 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -640,10 +631,10 @@
       <c r="E9" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -663,10 +654,10 @@
       <c r="E10" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -686,10 +677,10 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -709,10 +700,10 @@
       <c r="E12" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -732,10 +723,10 @@
       <c r="E13" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -744,21 +735,21 @@
         <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>40.7</v>
+        <v>29.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22.25</v>
+        <v>18.15</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -778,10 +769,10 @@
       <c r="E15" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -801,10 +792,10 @@
       <c r="E16" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -824,10 +815,10 @@
       <c r="E17" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -836,30 +827,30 @@
         <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>29.5</v>
+        <v>36.6</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>16.9</v>
+        <v>24.7</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>36.6</v>
+        <v>33.3</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>24.7</v>
@@ -870,10 +861,10 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="n">
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -882,30 +873,30 @@
         <v>33</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>33.3</v>
+        <v>34.9</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>34.9</v>
+        <v>31.45</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>23.2</v>
@@ -914,12 +905,12 @@
         <v>8</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -928,7 +919,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>31.45</v>
+        <v>28.1</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>23.2</v>
@@ -939,10 +930,10 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="n">
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -951,33 +942,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>23.2</v>
+        <v>21.7</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>21.7</v>
+        <v>27.25</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>8</v>
@@ -985,10 +976,10 @@
       <c r="E24" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="n">
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -997,79 +988,79 @@
         <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30.5</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>27.25</v>
+        <v>61.5</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>603</v>
+        <v>270</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>64</v>
+        <v>59.5</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>61.5</v>
+        <v>11.75</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>603</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>59.5</v>
+        <v>45.5</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>11.75</v>
+        <v>4.4</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>45.5</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
@@ -1077,68 +1068,68 @@
       <c r="E28" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>42</v>
+        <v>24.5</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>24.5</v>
+        <v>24.45</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2.5</v>
+        <v>11.8</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>8</v>
@@ -1146,91 +1137,91 @@
       <c r="E31" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>24.45</v>
+        <v>10.5</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>11.8</v>
+        <v>4.5</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10.5</v>
+        <v>35</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>4.5</v>
+        <v>28.5</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>35</v>
+        <v>21.2</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>28.5</v>
+        <v>16.9</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>603</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>21.2</v>
+        <v>34.2</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>16.9</v>
+        <v>61.45</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
@@ -1238,8 +1229,8 @@
       <c r="E35" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>55</v>
+      <c r="F35" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>603</v>
@@ -1247,10 +1238,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>34.2</v>
+        <v>38.85</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>61.45</v>
@@ -1261,8 +1252,8 @@
       <c r="E36" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F36" s="1" t="n">
-        <v>10</v>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>603</v>
@@ -1270,10 +1261,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>38.85</v>
+        <v>41.95</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>61.45</v>
@@ -1293,10 +1284,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>41.95</v>
+        <v>35.75</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>61.45</v>
@@ -1316,10 +1307,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>35.75</v>
+        <v>48.15</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>61.45</v>
@@ -1339,13 +1330,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>48.15</v>
+        <v>32.65</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>61.45</v>
+        <v>61.48</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -1362,22 +1353,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>32.65</v>
+        <v>61</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>61.48</v>
+        <v>61.5</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>603</v>
@@ -1385,22 +1376,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>61</v>
+        <v>45.05</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>61.5</v>
+        <v>61.45</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>603</v>
@@ -1408,22 +1399,22 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>45.05</v>
+        <v>34.9</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>61.45</v>
+        <v>18.75</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>603</v>
@@ -1431,22 +1422,22 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>34.9</v>
+        <v>37.3</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>18.75</v>
+        <v>19.65</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="F44" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>603</v>
@@ -1454,13 +1445,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>37.3</v>
+        <v>13.8</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>19.65</v>
+        <v>16.9</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>8</v>
@@ -1468,8 +1459,8 @@
       <c r="E45" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F45" s="1" t="n">
-        <v>0</v>
+      <c r="F45" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>603</v>
@@ -1477,13 +1468,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>13.8</v>
+        <v>32.5</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>16.9</v>
+        <v>19.65</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -1491,8 +1482,8 @@
       <c r="E46" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>55</v>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>603</v>
@@ -1500,13 +1491,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>32.5</v>
+        <v>24.2</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>19.65</v>
+        <v>18.6</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>8</v>
@@ -1523,10 +1514,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>24.2</v>
+        <v>16.8</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>18.6</v>
@@ -1546,13 +1537,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>16.8</v>
+        <v>28.25</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>18.6</v>
+        <v>18.15</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
@@ -1560,8 +1551,8 @@
       <c r="E49" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F49" s="1" t="n">
-        <v>0</v>
+      <c r="F49" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>603</v>
@@ -1569,22 +1560,22 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>31</v>
+        <v>41.6</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>18.6</v>
+        <v>24.7</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>603</v>
@@ -1592,13 +1583,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>28</v>
+        <v>49.7</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>16.9</v>
+        <v>61.45</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
@@ -1606,8 +1597,8 @@
       <c r="E51" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>55</v>
+      <c r="F51" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>603</v>
@@ -1615,22 +1606,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40.7</v>
+        <v>46.6</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>24.7</v>
+        <v>61.45</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>270</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>603</v>
@@ -1638,10 +1629,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>49.7</v>
+        <v>43.5</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>61.45</v>
@@ -1661,10 +1652,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>46.6</v>
+        <v>40.4</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>61.45</v>
@@ -1684,10 +1675,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>43.5</v>
+        <v>37.3</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>61.45</v>
@@ -1707,79 +1698,79 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>40.4</v>
+        <v>47.45</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>61.45</v>
+        <v>30.95</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>603</v>
+        <v>180</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>37.3</v>
+        <v>52.5</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>61.45</v>
+        <v>7.1</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>603</v>
+        <v>90</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>47.45</v>
+        <v>17.5</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>30.95</v>
+        <v>7.1</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>7.1</v>
@@ -1794,52 +1785,6 @@
         <v>85</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="1" t="s">
         <v>86</v>
       </c>
     </row>
